--- a/public/file/任课教师-导入学生名单模板.xlsx
+++ b/public/file/任课教师-导入学生名单模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\ktzx\smarttt_foreend\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\下载\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F8CA97-19CE-4E78-B208-43ADE0959288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0159F367-5A0C-46F8-B809-E68DDD29A519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5855" yWindow="7159" windowWidth="19562" windowHeight="10257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5774" yWindow="4238" windowWidth="19562" windowHeight="7214" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -44,6 +40,10 @@
   </si>
   <si>
     <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属单位（班级/专业/系/学院）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,13 +375,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -389,10 +389,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -400,10 +400,10 @@
         <v>20202570</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
